--- a/Analytics/Apple Blog/apple_topic.xlsx
+++ b/Analytics/Apple Blog/apple_topic.xlsx
@@ -46,430 +46,430 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                        battery</t>
-  </si>
-  <si>
-    <t>1                     generation</t>
-  </si>
-  <si>
-    <t>2                          model</t>
-  </si>
-  <si>
-    <t>3                          store</t>
-  </si>
-  <si>
-    <t>4                         camera</t>
+    <t>0                        percent</t>
+  </si>
+  <si>
+    <t>1                       powerful</t>
+  </si>
+  <si>
+    <t>2                     generation</t>
+  </si>
+  <si>
+    <t>3                      available</t>
+  </si>
+  <si>
+    <t>4                         faster</t>
   </si>
   <si>
     <t>5                       features</t>
   </si>
   <si>
-    <t>6                        display</t>
-  </si>
-  <si>
-    <t>7                             12</t>
-  </si>
-  <si>
-    <t>8                      customers</t>
-  </si>
-  <si>
-    <t>9                           mini</t>
-  </si>
-  <si>
-    <t>10                        iphone</t>
-  </si>
-  <si>
-    <t>11                     available</t>
+    <t>6                           core</t>
+  </si>
+  <si>
+    <t>7                           inch</t>
+  </si>
+  <si>
+    <t>8                        display</t>
+  </si>
+  <si>
+    <t>9                            mac</t>
+  </si>
+  <si>
+    <t>10                          mini</t>
+  </si>
+  <si>
+    <t>11                   performance</t>
+  </si>
+  <si>
+    <t>12                           new</t>
+  </si>
+  <si>
+    <t>13                          ipad</t>
+  </si>
+  <si>
+    <t>14                           pro</t>
+  </si>
+  <si>
+    <t>0                   applications</t>
+  </si>
+  <si>
+    <t>1                     innovative</t>
+  </si>
+  <si>
+    <t>2                       hardware</t>
+  </si>
+  <si>
+    <t>3                           said</t>
+  </si>
+  <si>
+    <t>4                      quicktime</t>
+  </si>
+  <si>
+    <t>5                        product</t>
+  </si>
+  <si>
+    <t>6                       internet</t>
+  </si>
+  <si>
+    <t>7                            new</t>
+  </si>
+  <si>
+    <t>8                      macintosh</t>
+  </si>
+  <si>
+    <t>9                     trademarks</t>
+  </si>
+  <si>
+    <t>10                      computer</t>
+  </si>
+  <si>
+    <t>11                      software</t>
+  </si>
+  <si>
+    <t>12                      personal</t>
+  </si>
+  <si>
+    <t>13                            os</t>
+  </si>
+  <si>
+    <t>14                           mac</t>
+  </si>
+  <si>
+    <t>0                       features</t>
+  </si>
+  <si>
+    <t>1                      beginning</t>
+  </si>
+  <si>
+    <t>2                         photos</t>
+  </si>
+  <si>
+    <t>3                            ios</t>
+  </si>
+  <si>
+    <t>4                          store</t>
+  </si>
+  <si>
+    <t>6                             11</t>
+  </si>
+  <si>
+    <t>7                             13</t>
+  </si>
+  <si>
+    <t>8                            red</t>
+  </si>
+  <si>
+    <t>9                      available</t>
+  </si>
+  <si>
+    <t>10                     customers</t>
+  </si>
+  <si>
+    <t>11                        camera</t>
+  </si>
+  <si>
+    <t>12                            12</t>
+  </si>
+  <si>
+    <t>13                           new</t>
+  </si>
+  <si>
+    <t>14                        iphone</t>
+  </si>
+  <si>
+    <t>0                         online</t>
+  </si>
+  <si>
+    <t>1                            new</t>
+  </si>
+  <si>
+    <t>2                     trademarks</t>
+  </si>
+  <si>
+    <t>3                  revolutionary</t>
+  </si>
+  <si>
+    <t>4                           ipod</t>
+  </si>
+  <si>
+    <t>5                            app</t>
+  </si>
+  <si>
+    <t>6                            mac</t>
+  </si>
+  <si>
+    <t>7                      available</t>
+  </si>
+  <si>
+    <t>8                             os</t>
+  </si>
+  <si>
+    <t>9                           ipad</t>
+  </si>
+  <si>
+    <t>10                        itunes</t>
+  </si>
+  <si>
+    <t>11                         touch</t>
+  </si>
+  <si>
+    <t>12                        mobile</t>
+  </si>
+  <si>
+    <t>13                         store</t>
+  </si>
+  <si>
+    <t>0                          later</t>
+  </si>
+  <si>
+    <t>1                          using</t>
+  </si>
+  <si>
+    <t>2                           time</t>
+  </si>
+  <si>
+    <t>3                            mac</t>
+  </si>
+  <si>
+    <t>4                         photos</t>
+  </si>
+  <si>
+    <t>5                         iphone</t>
+  </si>
+  <si>
+    <t>6                           ipad</t>
+  </si>
+  <si>
+    <t>7                       features</t>
+  </si>
+  <si>
+    <t>8                      available</t>
+  </si>
+  <si>
+    <t>9                            ios</t>
+  </si>
+  <si>
+    <t>10                          apps</t>
+  </si>
+  <si>
+    <t>11                           app</t>
+  </si>
+  <si>
+    <t>12                         watch</t>
+  </si>
+  <si>
+    <t>13                         users</t>
+  </si>
+  <si>
+    <t>14                           new</t>
+  </si>
+  <si>
+    <t>0                       services</t>
+  </si>
+  <si>
+    <t>1                            pay</t>
+  </si>
+  <si>
+    <t>2                           news</t>
+  </si>
+  <si>
+    <t>3                           best</t>
+  </si>
+  <si>
+    <t>4                      including</t>
+  </si>
+  <si>
+    <t>5                          watch</t>
+  </si>
+  <si>
+    <t>6                           year</t>
+  </si>
+  <si>
+    <t>7                            app</t>
+  </si>
+  <si>
+    <t>8                          today</t>
+  </si>
+  <si>
+    <t>9                          world</t>
+  </si>
+  <si>
+    <t>10                         music</t>
+  </si>
+  <si>
+    <t>11                           new</t>
+  </si>
+  <si>
+    <t>12                     customers</t>
+  </si>
+  <si>
+    <t>13                            tv</t>
+  </si>
+  <si>
+    <t>14                         store</t>
+  </si>
+  <si>
+    <t>0                     revolution</t>
+  </si>
+  <si>
+    <t>1                     trademarks</t>
+  </si>
+  <si>
+    <t>2                          today</t>
+  </si>
+  <si>
+    <t>3                            new</t>
+  </si>
+  <si>
+    <t>4                      available</t>
+  </si>
+  <si>
+    <t>5                       computer</t>
+  </si>
+  <si>
+    <t>6                         online</t>
+  </si>
+  <si>
+    <t>7                       personal</t>
+  </si>
+  <si>
+    <t>8                        digital</t>
+  </si>
+  <si>
+    <t>10                         songs</t>
+  </si>
+  <si>
+    <t>11                         store</t>
+  </si>
+  <si>
+    <t>12                          ipod</t>
+  </si>
+  <si>
+    <t>13                        itunes</t>
+  </si>
+  <si>
+    <t>14                         music</t>
+  </si>
+  <si>
+    <t>0                          share</t>
+  </si>
+  <si>
+    <t>1                          sales</t>
+  </si>
+  <si>
+    <t>2                             00</t>
+  </si>
+  <si>
+    <t>3                       business</t>
+  </si>
+  <si>
+    <t>4                     conference</t>
+  </si>
+  <si>
+    <t>6                       services</t>
+  </si>
+  <si>
+    <t>7                           year</t>
+  </si>
+  <si>
+    <t>8                        percent</t>
+  </si>
+  <si>
+    <t>9                        billion</t>
+  </si>
+  <si>
+    <t>10                     quicktime</t>
+  </si>
+  <si>
+    <t>11                      products</t>
+  </si>
+  <si>
+    <t>12                       results</t>
+  </si>
+  <si>
+    <t>13                       quarter</t>
+  </si>
+  <si>
+    <t>14                       company</t>
+  </si>
+  <si>
+    <t>0                          today</t>
+  </si>
+  <si>
+    <t>1                          store</t>
+  </si>
+  <si>
+    <t>2                        support</t>
+  </si>
+  <si>
+    <t>3                      community</t>
+  </si>
+  <si>
+    <t>4                            000</t>
+  </si>
+  <si>
+    <t>5                     technology</t>
+  </si>
+  <si>
+    <t>6                         people</t>
+  </si>
+  <si>
+    <t>8                           apps</t>
+  </si>
+  <si>
+    <t>10                      students</t>
+  </si>
+  <si>
+    <t>11                    developers</t>
+  </si>
+  <si>
+    <t>12                          help</t>
+  </si>
+  <si>
+    <t>14                           app</t>
+  </si>
+  <si>
+    <t>0                      processor</t>
+  </si>
+  <si>
+    <t>1                          built</t>
+  </si>
+  <si>
+    <t>2                        display</t>
+  </si>
+  <si>
+    <t>3                         retail</t>
+  </si>
+  <si>
+    <t>4                       includes</t>
+  </si>
+  <si>
+    <t>5                        digital</t>
+  </si>
+  <si>
+    <t>6                          power</t>
+  </si>
+  <si>
+    <t>7                             g4</t>
+  </si>
+  <si>
+    <t>8                            dvd</t>
+  </si>
+  <si>
+    <t>9                           inch</t>
+  </si>
+  <si>
+    <t>10                         drive</t>
+  </si>
+  <si>
+    <t>11                         video</t>
   </si>
   <si>
     <t>12                           pro</t>
   </si>
   <si>
-    <t>13                           new</t>
-  </si>
-  <si>
-    <t>14                          ipad</t>
-  </si>
-  <si>
-    <t>0                     revolution</t>
-  </si>
-  <si>
-    <t>1                     trademarks</t>
-  </si>
-  <si>
-    <t>2                          today</t>
-  </si>
-  <si>
-    <t>3                            new</t>
-  </si>
-  <si>
-    <t>4                       personal</t>
-  </si>
-  <si>
-    <t>5                      available</t>
-  </si>
-  <si>
-    <t>6                       computer</t>
-  </si>
-  <si>
-    <t>7                         online</t>
-  </si>
-  <si>
-    <t>8                        digital</t>
-  </si>
-  <si>
-    <t>9                          songs</t>
-  </si>
-  <si>
-    <t>10                           mac</t>
-  </si>
-  <si>
-    <t>11                         store</t>
-  </si>
-  <si>
-    <t>12                          ipod</t>
-  </si>
-  <si>
-    <t>13                        itunes</t>
-  </si>
-  <si>
-    <t>14                         music</t>
-  </si>
-  <si>
-    <t>0                          world</t>
-  </si>
-  <si>
-    <t>1                          phone</t>
-  </si>
-  <si>
-    <t>2                      available</t>
-  </si>
-  <si>
-    <t>3                          press</t>
-  </si>
-  <si>
-    <t>4                  revolutionary</t>
-  </si>
-  <si>
-    <t>5                         itunes</t>
-  </si>
-  <si>
-    <t>6                     trademarks</t>
-  </si>
-  <si>
-    <t>7                           ipad</t>
-  </si>
-  <si>
-    <t>8                          touch</t>
-  </si>
-  <si>
-    <t>9                            app</t>
-  </si>
-  <si>
-    <t>11                            os</t>
-  </si>
-  <si>
-    <t>12                        mobile</t>
-  </si>
-  <si>
-    <t>13                         store</t>
-  </si>
-  <si>
-    <t>14                        iphone</t>
-  </si>
-  <si>
-    <t>0                         faster</t>
-  </si>
-  <si>
-    <t>1                      processor</t>
-  </si>
-  <si>
-    <t>2                          built</t>
-  </si>
-  <si>
-    <t>3                         memory</t>
-  </si>
-  <si>
-    <t>4                          power</t>
-  </si>
-  <si>
-    <t>5                       graphics</t>
-  </si>
-  <si>
-    <t>6                          video</t>
-  </si>
-  <si>
-    <t>7                          drive</t>
-  </si>
-  <si>
-    <t>8                        display</t>
-  </si>
-  <si>
-    <t>9                    performance</t>
-  </si>
-  <si>
-    <t>10                          core</t>
-  </si>
-  <si>
-    <t>11                          inch</t>
-  </si>
-  <si>
-    <t>12                           mac</t>
-  </si>
-  <si>
-    <t>14                           pro</t>
-  </si>
-  <si>
-    <t>0                       services</t>
-  </si>
-  <si>
-    <t>1                         better</t>
-  </si>
-  <si>
-    <t>2                          users</t>
-  </si>
-  <si>
-    <t>3                      including</t>
-  </si>
-  <si>
-    <t>4                       software</t>
-  </si>
-  <si>
-    <t>5                     technology</t>
-  </si>
-  <si>
-    <t>6                           apps</t>
-  </si>
-  <si>
-    <t>7                        devices</t>
-  </si>
-  <si>
-    <t>8                          macos</t>
-  </si>
-  <si>
-    <t>9                           data</t>
-  </si>
-  <si>
-    <t>10                         world</t>
-  </si>
-  <si>
-    <t>11                           pay</t>
-  </si>
-  <si>
-    <t>12                           new</t>
-  </si>
-  <si>
-    <t>13                           ios</t>
-  </si>
-  <si>
-    <t>0                          steve</t>
-  </si>
-  <si>
-    <t>1                            www</t>
-  </si>
-  <si>
-    <t>2                        product</t>
-  </si>
-  <si>
-    <t>3                            mac</t>
-  </si>
-  <si>
-    <t>4                        company</t>
-  </si>
-  <si>
-    <t>5                             00</t>
-  </si>
-  <si>
-    <t>6                       internet</t>
-  </si>
-  <si>
-    <t>7                     conference</t>
-  </si>
-  <si>
-    <t>8                       software</t>
-  </si>
-  <si>
-    <t>9                          press</t>
-  </si>
-  <si>
-    <t>10                     macintosh</t>
-  </si>
-  <si>
-    <t>11                    trademarks</t>
-  </si>
-  <si>
-    <t>12                      computer</t>
-  </si>
-  <si>
-    <t>13                      personal</t>
-  </si>
-  <si>
-    <t>14                     quicktime</t>
-  </si>
-  <si>
-    <t>0                        million</t>
-  </si>
-  <si>
-    <t>1                             10</t>
-  </si>
-  <si>
-    <t>2                          sales</t>
-  </si>
-  <si>
-    <t>3                          share</t>
-  </si>
-  <si>
-    <t>4                      including</t>
-  </si>
-  <si>
-    <t>5                        product</t>
-  </si>
-  <si>
-    <t>6                       business</t>
-  </si>
-  <si>
-    <t>7                       services</t>
-  </si>
-  <si>
-    <t>8                           year</t>
-  </si>
-  <si>
-    <t>9                        percent</t>
-  </si>
-  <si>
-    <t>10                       billion</t>
-  </si>
-  <si>
-    <t>11                       results</t>
-  </si>
-  <si>
-    <t>12                      products</t>
-  </si>
-  <si>
-    <t>13                       quarter</t>
-  </si>
-  <si>
-    <t>14                       company</t>
-  </si>
-  <si>
-    <t>0                       features</t>
-  </si>
-  <si>
-    <t>1                          video</t>
-  </si>
-  <si>
-    <t>2                     trademarks</t>
-  </si>
-  <si>
-    <t>3                          power</t>
-  </si>
-  <si>
-    <t>4                       computer</t>
-  </si>
-  <si>
-    <t>5                       personal</t>
-  </si>
-  <si>
-    <t>6                      available</t>
-  </si>
-  <si>
-    <t>7                      macintosh</t>
-  </si>
-  <si>
-    <t>8                   applications</t>
-  </si>
-  <si>
-    <t>9                          users</t>
-  </si>
-  <si>
-    <t>10                      software</t>
-  </si>
-  <si>
-    <t>11                           pro</t>
-  </si>
-  <si>
-    <t>13                            os</t>
-  </si>
-  <si>
-    <t>14                           mac</t>
-  </si>
-  <si>
-    <t>0                         photos</t>
-  </si>
-  <si>
-    <t>1                     experience</t>
-  </si>
-  <si>
-    <t>2                           news</t>
-  </si>
-  <si>
-    <t>3                          watch</t>
-  </si>
-  <si>
-    <t>4                          music</t>
-  </si>
-  <si>
-    <t>5                            ios</t>
-  </si>
-  <si>
-    <t>6                         iphone</t>
-  </si>
-  <si>
-    <t>7                       features</t>
-  </si>
-  <si>
-    <t>8                           ipad</t>
-  </si>
-  <si>
-    <t>9                      available</t>
-  </si>
-  <si>
-    <t>10                          apps</t>
-  </si>
-  <si>
-    <t>11                            tv</t>
-  </si>
-  <si>
-    <t>12                           app</t>
-  </si>
-  <si>
-    <t>13                         users</t>
-  </si>
-  <si>
-    <t>14                           new</t>
-  </si>
-  <si>
-    <t>0                        support</t>
-  </si>
-  <si>
-    <t>1                      including</t>
-  </si>
-  <si>
-    <t>2                         health</t>
-  </si>
-  <si>
-    <t>3                         people</t>
-  </si>
-  <si>
-    <t>4                       students</t>
-  </si>
-  <si>
-    <t>5                         series</t>
-  </si>
-  <si>
-    <t>6                      customers</t>
-  </si>
-  <si>
-    <t>7                          today</t>
-  </si>
-  <si>
-    <t>9                           help</t>
-  </si>
-  <si>
-    <t>13                           app</t>
-  </si>
-  <si>
-    <t>14                         watch</t>
+    <t>13                           mac</t>
   </si>
 </sst>
 </file>
@@ -882,10 +882,10 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>112</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -914,10 +914,10 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>113</v>
@@ -926,7 +926,7 @@
         <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -946,10 +946,10 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>114</v>
@@ -958,7 +958,7 @@
         <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -978,10 +978,10 @@
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
         <v>115</v>
@@ -990,7 +990,7 @@
         <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1010,10 +1010,10 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
         <v>116</v>
@@ -1022,7 +1022,7 @@
         <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -1042,19 +1042,19 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1065,7 +1065,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -1074,19 +1074,19 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
         <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1097,7 +1097,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1106,19 +1106,19 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1129,7 +1129,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
@@ -1138,19 +1138,19 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1161,7 +1161,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
@@ -1170,19 +1170,19 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1193,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1202,19 +1202,19 @@
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1234,19 +1234,19 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1266,19 +1266,19 @@
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1292,13 +1292,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>110</v>
@@ -1307,10 +1307,10 @@
         <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1324,13 +1324,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
         <v>111</v>
@@ -1339,10 +1339,10 @@
         <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
